--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -767,10 +779,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -814,28 +826,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -860,28 +872,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1723,10 +1735,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1770,28 +1782,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1816,28 +1828,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2766,10 +2778,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2813,28 +2825,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2859,28 +2871,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3374,10 +3386,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3421,28 +3433,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3467,28 +3479,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3663,10 +3675,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3710,28 +3722,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3923,10 +3935,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
